--- a/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_15_7.xlsx
+++ b/Peaks-dataset-article/redes-ensemble-s/Teste01/content/results/metrics_15_7.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q13"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,661 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_11</t>
+          <t>model_15_7_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9290360803932954</v>
+        <v>0.9353888429391869</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7630798311911748</v>
+        <v>0.7899839534769876</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8914867082205806</v>
+        <v>0.9819941123064402</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9290203643745796</v>
+        <v>0.8706482452418859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9213731005227882</v>
+        <v>0.9254329402610697</v>
       </c>
       <c r="G2" t="n">
-        <v>0.474536057168838</v>
+        <v>0.4320551047726801</v>
       </c>
       <c r="H2" t="n">
-        <v>1.584286259741681</v>
+        <v>1.404378270134359</v>
       </c>
       <c r="I2" t="n">
-        <v>1.112059151132352</v>
+        <v>0.1005577031165343</v>
       </c>
       <c r="J2" t="n">
-        <v>0.2739420558148218</v>
+        <v>0.7463173996177519</v>
       </c>
       <c r="K2" t="n">
-        <v>0.6930006034735871</v>
+        <v>0.4234375513671431</v>
       </c>
       <c r="L2" t="n">
-        <v>0.9328275757224059</v>
+        <v>1.50194501176907</v>
       </c>
       <c r="M2" t="n">
-        <v>0.6888657758728024</v>
+        <v>0.657308987290361</v>
       </c>
       <c r="N2" t="n">
-        <v>1.189237118951212</v>
+        <v>1.172296418828835</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7181922181004479</v>
+        <v>0.6852919916964942</v>
       </c>
       <c r="P2" t="n">
-        <v>67.49083534800164</v>
+        <v>67.67840428305722</v>
       </c>
       <c r="Q2" t="n">
-        <v>107.7137375686523</v>
+        <v>107.9013065037078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_10</t>
+          <t>model_15_7_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9288243112675968</v>
+        <v>0.9359209727630085</v>
       </c>
       <c r="C3" t="n">
-        <v>0.762671364926751</v>
+        <v>0.7897694161150425</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8929722861916241</v>
+        <v>0.9823831387966129</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9311444806768443</v>
+        <v>0.8676943878443169</v>
       </c>
       <c r="F3" t="n">
-        <v>0.922701832656996</v>
+        <v>0.9241236250105644</v>
       </c>
       <c r="G3" t="n">
-        <v>0.4759521582874916</v>
+        <v>0.4284967501905527</v>
       </c>
       <c r="H3" t="n">
-        <v>1.587017675532698</v>
+        <v>1.40581288246154</v>
       </c>
       <c r="I3" t="n">
-        <v>1.096834743593618</v>
+        <v>0.09838510207797287</v>
       </c>
       <c r="J3" t="n">
-        <v>0.2657441440968339</v>
+        <v>0.7633601925502312</v>
       </c>
       <c r="K3" t="n">
-        <v>0.6812894438452259</v>
+        <v>0.430872647314102</v>
       </c>
       <c r="L3" t="n">
-        <v>0.9874353111694435</v>
+        <v>1.4904157749115</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6898928600061691</v>
+        <v>0.6545966316675886</v>
       </c>
       <c r="N3" t="n">
-        <v>1.189801836619742</v>
+        <v>1.170877405965311</v>
       </c>
       <c r="O3" t="n">
-        <v>0.7192630273317293</v>
+        <v>0.6824641654795102</v>
       </c>
       <c r="P3" t="n">
-        <v>67.4848758752027</v>
+        <v>67.6949442502516</v>
       </c>
       <c r="Q3" t="n">
-        <v>107.7077780958533</v>
+        <v>107.9178464709022</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_9</t>
+          <t>model_15_7_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9285864825754544</v>
+        <v>0.9364362371445182</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7622292847011667</v>
+        <v>0.7895420129505671</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8944167080732252</v>
+        <v>0.9827431957240507</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9332671015476594</v>
+        <v>0.8647758473444979</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9240063104670762</v>
+        <v>0.922818006110672</v>
       </c>
       <c r="G4" t="n">
-        <v>0.4775425198469487</v>
+        <v>0.4250511748988226</v>
       </c>
       <c r="H4" t="n">
-        <v>1.589973868036772</v>
+        <v>1.407333528469481</v>
       </c>
       <c r="I4" t="n">
-        <v>1.082032109324671</v>
+        <v>0.09637428771377526</v>
       </c>
       <c r="J4" t="n">
-        <v>0.2575520039154564</v>
+        <v>0.7801992185114726</v>
       </c>
       <c r="K4" t="n">
-        <v>0.6697920566200635</v>
+        <v>0.4382867531126239</v>
       </c>
       <c r="L4" t="n">
-        <v>1.041628216580715</v>
+        <v>1.478967617763265</v>
       </c>
       <c r="M4" t="n">
-        <v>0.6910445136508565</v>
+        <v>0.651959488694522</v>
       </c>
       <c r="N4" t="n">
-        <v>1.190436046465455</v>
+        <v>1.169503367614618</v>
       </c>
       <c r="O4" t="n">
-        <v>0.7204637092563226</v>
+        <v>0.6797147538704416</v>
       </c>
       <c r="P4" t="n">
-        <v>67.47820415245178</v>
+        <v>67.71109141155993</v>
       </c>
       <c r="Q4" t="n">
-        <v>107.7011063731024</v>
+        <v>107.9339936322106</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_8</t>
+          <t>model_15_7_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9283227502614737</v>
+        <v>0.9369352261438318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7617525106735199</v>
+        <v>0.7893023810553053</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8958216243814102</v>
+        <v>0.9830753189433997</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9353886402297559</v>
+        <v>0.8618938971862105</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9252875839901531</v>
+        <v>0.9215172398563154</v>
       </c>
       <c r="G5" t="n">
-        <v>0.4793060990449129</v>
+        <v>0.4217144331627792</v>
       </c>
       <c r="H5" t="n">
-        <v>1.593162058154989</v>
+        <v>1.408935948056502</v>
       </c>
       <c r="I5" t="n">
-        <v>1.067634333610077</v>
+        <v>0.09451947507372123</v>
       </c>
       <c r="J5" t="n">
-        <v>0.2493640403827719</v>
+        <v>0.7968271301465566</v>
       </c>
       <c r="K5" t="n">
-        <v>0.6584991869964246</v>
+        <v>0.4456733026101389</v>
       </c>
       <c r="L5" t="n">
-        <v>1.095465923475236</v>
+        <v>1.467605429978013</v>
       </c>
       <c r="M5" t="n">
-        <v>0.6923193620323737</v>
+        <v>0.6493954366661189</v>
       </c>
       <c r="N5" t="n">
-        <v>1.19113933263607</v>
+        <v>1.168172730283115</v>
       </c>
       <c r="O5" t="n">
-        <v>0.721792830572741</v>
+        <v>0.6770415448388699</v>
       </c>
       <c r="P5" t="n">
-        <v>67.4708316959936</v>
+        <v>67.72685378535283</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.6937339166442</v>
+        <v>107.9497560060035</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_7</t>
+          <t>model_15_7_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9280332299743456</v>
+        <v>0.9374187288376713</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7612399911924619</v>
+        <v>0.7890513029480041</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8971889299168384</v>
+        <v>0.9833805713504716</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9375093764668703</v>
+        <v>0.8590499636623241</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9265468160543016</v>
+        <v>0.9202225734894751</v>
       </c>
       <c r="G6" t="n">
-        <v>0.4812421225380569</v>
+        <v>0.4184812484227492</v>
       </c>
       <c r="H6" t="n">
-        <v>1.596589278284759</v>
+        <v>1.410614908516133</v>
       </c>
       <c r="I6" t="n">
-        <v>1.053621998271862</v>
+        <v>0.09281472819046015</v>
       </c>
       <c r="J6" t="n">
-        <v>0.2411791738429941</v>
+        <v>0.813235698211224</v>
       </c>
       <c r="K6" t="n">
-        <v>0.6474005860574281</v>
+        <v>0.4530252132008421</v>
       </c>
       <c r="L6" t="n">
-        <v>1.149035710987218</v>
+        <v>1.456332614115958</v>
       </c>
       <c r="M6" t="n">
-        <v>0.6937161685718857</v>
+        <v>0.6469012663635381</v>
       </c>
       <c r="N6" t="n">
-        <v>1.191911386735079</v>
+        <v>1.16688338976621</v>
       </c>
       <c r="O6" t="n">
-        <v>0.7232491020584282</v>
+        <v>0.6744411925428639</v>
       </c>
       <c r="P6" t="n">
-        <v>67.4627695245324</v>
+        <v>67.74224639338532</v>
       </c>
       <c r="Q6" t="n">
-        <v>107.685671745183</v>
+        <v>107.9651486140359</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_6</t>
+          <t>model_15_7_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9277179592683109</v>
+        <v>0.9378872787669051</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7606904511793956</v>
+        <v>0.7887894535926818</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8985193471485373</v>
+        <v>0.9836599366140187</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9396305903888016</v>
+        <v>0.8562447230074681</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9277847069575952</v>
+        <v>0.9189348342507451</v>
       </c>
       <c r="G7" t="n">
-        <v>0.4833503392009989</v>
+        <v>0.4153480528884884</v>
       </c>
       <c r="H7" t="n">
-        <v>1.600264054882532</v>
+        <v>1.412365896360878</v>
       </c>
       <c r="I7" t="n">
-        <v>1.039987699347981</v>
+        <v>0.09125455355697695</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2329924637045614</v>
+        <v>0.8294210210524107</v>
       </c>
       <c r="K7" t="n">
-        <v>0.6364900815262712</v>
+        <v>0.4603377873046938</v>
       </c>
       <c r="L7" t="n">
-        <v>1.202441017833406</v>
+        <v>1.445139015963635</v>
       </c>
       <c r="M7" t="n">
-        <v>0.6952340175804108</v>
+        <v>0.6444750211517033</v>
       </c>
       <c r="N7" t="n">
-        <v>1.192752108617838</v>
+        <v>1.165633923288253</v>
       </c>
       <c r="O7" t="n">
-        <v>0.7248315690416268</v>
+        <v>0.6719116570493414</v>
       </c>
       <c r="P7" t="n">
-        <v>67.45402709660159</v>
+        <v>67.75727685717875</v>
       </c>
       <c r="Q7" t="n">
-        <v>107.6769293172522</v>
+        <v>107.9801790778294</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_5</t>
+          <t>model_15_7_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9273768576077102</v>
+        <v>0.9383415922941666</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7601025756418334</v>
+        <v>0.7885174973903473</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8998135710054613</v>
+        <v>0.9839142911854778</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9417538939718649</v>
+        <v>0.85347975009386</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9290020136428497</v>
+        <v>0.9176552531823901</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4856312875760653</v>
+        <v>0.4123100562397702</v>
       </c>
       <c r="H8" t="n">
-        <v>1.604195181309129</v>
+        <v>1.414184468738132</v>
       </c>
       <c r="I8" t="n">
-        <v>1.026724315110851</v>
+        <v>0.08983405644412026</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2247976886322726</v>
+        <v>0.8453740121715208</v>
       </c>
       <c r="K8" t="n">
-        <v>0.625761001871562</v>
+        <v>0.4676040343078205</v>
       </c>
       <c r="L8" t="n">
-        <v>1.255827378649237</v>
+        <v>1.434036608071532</v>
       </c>
       <c r="M8" t="n">
-        <v>0.6968725045344129</v>
+        <v>0.6421137408900157</v>
       </c>
       <c r="N8" t="n">
-        <v>1.193661713046106</v>
+        <v>1.164422420548889</v>
       </c>
       <c r="O8" t="n">
-        <v>0.7265398097773964</v>
+        <v>0.6694498521983898</v>
       </c>
       <c r="P8" t="n">
-        <v>67.44461122110893</v>
+        <v>67.77195929795582</v>
       </c>
       <c r="Q8" t="n">
-        <v>107.6675134417596</v>
+        <v>107.9948615186064</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_4</t>
+          <t>model_15_7_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9270098146982109</v>
+        <v>0.9387820297926244</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7594747239648528</v>
+        <v>0.788235986742471</v>
       </c>
       <c r="D9" t="n">
-        <v>0.901071196841456</v>
+        <v>0.9841445706315322</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9438814309159934</v>
+        <v>0.850754598003299</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9301989702106298</v>
+        <v>0.9163840632900923</v>
       </c>
       <c r="G9" t="n">
-        <v>0.4880857052019637</v>
+        <v>0.4093648486595544</v>
       </c>
       <c r="H9" t="n">
-        <v>1.608393628364089</v>
+        <v>1.416066931736718</v>
       </c>
       <c r="I9" t="n">
-        <v>1.013835992429965</v>
+        <v>0.08854801198109455</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2165865751324476</v>
+        <v>0.8610972501406817</v>
       </c>
       <c r="K9" t="n">
-        <v>0.6152112837812065</v>
+        <v>0.4748226310608881</v>
       </c>
       <c r="L9" t="n">
-        <v>1.30934855165157</v>
+        <v>1.423014104687146</v>
       </c>
       <c r="M9" t="n">
-        <v>0.6986313084896523</v>
+        <v>0.639816261640445</v>
       </c>
       <c r="N9" t="n">
-        <v>1.194640494138104</v>
+        <v>1.163247920553002</v>
       </c>
       <c r="O9" t="n">
-        <v>0.7283734896582365</v>
+        <v>0.6670545645007272</v>
       </c>
       <c r="P9" t="n">
-        <v>67.43452852627094</v>
+        <v>67.78629694013516</v>
       </c>
       <c r="Q9" t="n">
-        <v>107.6574307469216</v>
+        <v>108.0091991607858</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_3</t>
+          <t>model_15_7_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.926616360333848</v>
+        <v>0.9392092004864624</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7588051768496888</v>
+        <v>0.7879455428765419</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9022912483610108</v>
+        <v>0.9843514586025057</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9460155785375695</v>
+        <v>0.8480706799151552</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9313755295706641</v>
+        <v>0.9151223186668039</v>
       </c>
       <c r="G10" t="n">
-        <v>0.4907167363481489</v>
+        <v>0.4065083562629194</v>
       </c>
       <c r="H10" t="n">
-        <v>1.612870893006172</v>
+        <v>1.418009131205557</v>
       </c>
       <c r="I10" t="n">
-        <v>1.001332736516102</v>
+        <v>0.08739260217750057</v>
       </c>
       <c r="J10" t="n">
-        <v>0.2083499480813859</v>
+        <v>0.8765825813762436</v>
       </c>
       <c r="K10" t="n">
-        <v>0.6048413422987438</v>
+        <v>0.4819875917768721</v>
       </c>
       <c r="L10" t="n">
-        <v>1.363195642238377</v>
+        <v>1.412080901517353</v>
       </c>
       <c r="M10" t="n">
-        <v>0.7005117674587266</v>
+        <v>0.637580078314026</v>
       </c>
       <c r="N10" t="n">
-        <v>1.195689705776405</v>
+        <v>1.162108798702767</v>
       </c>
       <c r="O10" t="n">
-        <v>0.7303340036587108</v>
+        <v>0.6647231822205648</v>
       </c>
       <c r="P10" t="n">
-        <v>67.42377645875955</v>
+        <v>67.80030158718641</v>
       </c>
       <c r="Q10" t="n">
-        <v>107.6466786794102</v>
+        <v>108.023203807837</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_2</t>
+          <t>model_15_7_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9261959393006244</v>
+        <v>0.9396235146891123</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7580919965647966</v>
+        <v>0.787646602918638</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9034715287829744</v>
+        <v>0.9845359422063575</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9481598484157276</v>
+        <v>0.8454273792608797</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9325311834188517</v>
+        <v>0.9138701914773113</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4935280937331761</v>
+        <v>0.4037378352820579</v>
       </c>
       <c r="H11" t="n">
-        <v>1.617639932855139</v>
+        <v>1.420008144080553</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9892370602848883</v>
+        <v>0.08636231431934477</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2000742547297835</v>
+        <v>0.8918335632774612</v>
       </c>
       <c r="K11" t="n">
-        <v>0.5946556575073358</v>
+        <v>0.489097938798403</v>
       </c>
       <c r="L11" t="n">
-        <v>1.417569301983672</v>
+        <v>1.4012350693505</v>
       </c>
       <c r="M11" t="n">
-        <v>0.7025155469690163</v>
+        <v>0.6354036789963196</v>
       </c>
       <c r="N11" t="n">
-        <v>1.196810828531668</v>
+        <v>1.161003960829034</v>
       </c>
       <c r="O11" t="n">
-        <v>0.732423088211149</v>
+        <v>0.6624541290781359</v>
       </c>
       <c r="P11" t="n">
-        <v>67.41235098840949</v>
+        <v>67.81397906846307</v>
       </c>
       <c r="Q11" t="n">
-        <v>107.6352532090601</v>
+        <v>108.0368812891137</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_1</t>
+          <t>model_15_7_10</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9257476927937761</v>
+        <v>0.9400254180444652</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7573330189452753</v>
+        <v>0.7873398211423565</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9046089981459547</v>
+        <v>0.9846987056707263</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9503168661148413</v>
+        <v>0.8428256131843742</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9336647392641719</v>
+        <v>0.9126284841036226</v>
       </c>
       <c r="G12" t="n">
-        <v>0.4965255201884561</v>
+        <v>0.4010503056942189</v>
       </c>
       <c r="H12" t="n">
-        <v>1.622715219691649</v>
+        <v>1.422059595231148</v>
       </c>
       <c r="I12" t="n">
-        <v>0.9775801176791266</v>
+        <v>0.08545332719209189</v>
       </c>
       <c r="J12" t="n">
-        <v>0.1917493618542763</v>
+        <v>0.9068449042234137</v>
       </c>
       <c r="K12" t="n">
-        <v>0.5846647397667015</v>
+        <v>0.4961491157077528</v>
       </c>
       <c r="L12" t="n">
-        <v>1.472684852793809</v>
+        <v>1.390469836131176</v>
       </c>
       <c r="M12" t="n">
-        <v>0.7046456699565081</v>
+        <v>0.63328532723743</v>
       </c>
       <c r="N12" t="n">
-        <v>1.19800615254993</v>
+        <v>1.159932218548093</v>
       </c>
       <c r="O12" t="n">
-        <v>0.7346438949441809</v>
+        <v>0.6602455946992779</v>
       </c>
       <c r="P12" t="n">
-        <v>67.40024079327939</v>
+        <v>67.82733681786962</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.62314301393</v>
+        <v>108.0502390385202</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_15_7_0</t>
+          <t>model_15_7_11</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9252703013850718</v>
+        <v>0.9404153994821214</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7565258168188225</v>
+        <v>0.787025533590318</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9056990168709209</v>
+        <v>0.9848404398214432</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9524889424743777</v>
+        <v>0.8402647712006213</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9347740057391253</v>
+        <v>0.9113972261096663</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4997178387366472</v>
+        <v>0.3984424980249122</v>
       </c>
       <c r="H13" t="n">
-        <v>1.628112984028062</v>
+        <v>1.42416123753879</v>
       </c>
       <c r="I13" t="n">
-        <v>0.9664094557433676</v>
+        <v>0.08466178273220004</v>
       </c>
       <c r="J13" t="n">
-        <v>0.1833663508952139</v>
+        <v>0.9216201265133658</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5748879033192908</v>
+        <v>0.503140954622783</v>
       </c>
       <c r="L13" t="n">
-        <v>1.5287678464435</v>
+        <v>1.379788552232411</v>
       </c>
       <c r="M13" t="n">
-        <v>0.7069072348877519</v>
+        <v>0.6312230176608836</v>
       </c>
       <c r="N13" t="n">
-        <v>1.199279196306475</v>
+        <v>1.158892268047676</v>
       </c>
       <c r="O13" t="n">
-        <v>0.7370017393766325</v>
+        <v>0.6580954883344885</v>
       </c>
       <c r="P13" t="n">
-        <v>67.38742332475307</v>
+        <v>67.84038417442288</v>
       </c>
       <c r="Q13" t="n">
-        <v>107.6103255454037</v>
+        <v>108.0632863950735</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_12</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.9407937341435968</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.7867042788276304</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.9849618523667969</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8377452747829314</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.9101769796141741</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.3959125724015549</v>
+      </c>
+      <c r="H14" t="n">
+        <v>1.426309469616124</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.0839837285924605</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.9361567983839003</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0.5100702634881804</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.369194413291216</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0.6292158392805722</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1.157883375617075</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0.6560028602150951</v>
+      </c>
+      <c r="P14" t="n">
+        <v>67.85312373773237</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>108.076025958383</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_13</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9411608089348678</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.7863764652035488</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.9850636566348991</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8352665359419373</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.908967796674355</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.3934579415821025</v>
+      </c>
+      <c r="H15" t="n">
+        <v>1.4285015608298</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0.08341518104056823</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.9504583123417244</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0.5169367466911463</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1.35868645897831</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.6272622590130085</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1.156904509507019</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0.6539661119910726</v>
+      </c>
+      <c r="P15" t="n">
+        <v>67.8655621994576</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>108.0884644201082</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_14</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9415171263603985</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.7860424350189191</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.9851464423999268</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8328292547324631</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.9077703229413219</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.3910752453168867</v>
+      </c>
+      <c r="H16" t="n">
+        <v>1.430735222212487</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.08295284635740258</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.9645206292990282</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0.5237367378282154</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1.348263701570946</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0.6253600925202109</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1.155954329705604</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0.6519829663326492</v>
+      </c>
+      <c r="P16" t="n">
+        <v>67.87771058849181</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>108.1006128091424</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_15</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9418627961714412</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.7857025830902619</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9852109495985996</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.8304318605296661</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.9065841243603142</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.3887637496987816</v>
+      </c>
+      <c r="H17" t="n">
+        <v>1.433007813624292</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.08259259220923643</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.9783528112484412</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0.5304727017288389</v>
+      </c>
+      <c r="L17" t="n">
+        <v>1.337922092678478</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0.6235092218233678</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1.155032543542823</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0.6500533002384108</v>
+      </c>
+      <c r="P17" t="n">
+        <v>67.88956689422817</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>108.1124691148788</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_16</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9421982375485188</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7853572897950665</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9852576811341229</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.8280747762053611</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.9054096630513175</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.386520651665698</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1.435316791479193</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.08233161002633513</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.9919524183576344</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0.5371420141919847</v>
+      </c>
+      <c r="L18" t="n">
+        <v>1.328046661594316</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0.6217078507351327</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.15413803320395</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0.6481752410535975</v>
+      </c>
+      <c r="P18" t="n">
+        <v>67.90113995974123</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>108.1240421803919</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_17</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9425236839016002</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.7850068624161957</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9852872102328216</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8257570944543227</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9042467599608837</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.3843443904041003</v>
+      </c>
+      <c r="H19" t="n">
+        <v>1.437660100975272</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.0821666985045721</v>
+      </c>
+      <c r="J19" t="n">
+        <v>1.00532468548158</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0.543745691993076</v>
+      </c>
+      <c r="L19" t="n">
+        <v>1.318316744005806</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.6199551519296378</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.153270176262399</v>
+      </c>
+      <c r="O19" t="n">
+        <v>0.6463479262313659</v>
+      </c>
+      <c r="P19" t="n">
+        <v>67.91243255662681</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>108.1353347772774</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_18</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9428394878589392</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.7846516157533658</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9853001839434367</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8234792247956753</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0.9030959413065653</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.3822326078872302</v>
+      </c>
+      <c r="H20" t="n">
+        <v>1.440035637045375</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.08209424406286094</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1.01846724982861</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0.5502807469457357</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.308661569582654</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0.6182496323389365</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.152428032376162</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0.6445697991407762</v>
+      </c>
+      <c r="P20" t="n">
+        <v>67.92345186904414</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>108.1463540896948</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_19</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9431459018830413</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.784291833338341</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9852971070242774</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8212396435103192</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.9019566812178049</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3801836158971536</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.442441503711292</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.08211142777124519</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.031388902760533</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0.5567501652658891</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1.299084153012225</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.6165903144691405</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.15161092831189</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0.6428398406740016</v>
+      </c>
+      <c r="P21" t="n">
+        <v>67.9342018864715</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>108.1571041071221</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_20</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9434430423121689</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.7839278377069118</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9852784233155452</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8190381848886229</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0.9008291137615914</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.3781966364793711</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1.444875544174705</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.082215770909878</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1.044090600367828</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0.5631531856388529</v>
+      </c>
+      <c r="L22" t="n">
+        <v>1.289586721816691</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0.6149769397947952</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.150818553834216</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0.6411577812996232</v>
+      </c>
+      <c r="P22" t="n">
+        <v>67.94468203258899</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>108.1675842532396</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_21</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9437314072949304</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.7835598762293166</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.985244689631512</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8168745926582468</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.8997133825504138</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3762683385118458</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1.447336104269692</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.08240416383122509</v>
+      </c>
+      <c r="J23" t="n">
+        <v>1.056573821258236</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0.5694889925447304</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1.280166504017502</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0.6134071555760054</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.150049580546852</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0.6395211681167384</v>
+      </c>
+      <c r="P23" t="n">
+        <v>67.954905447752</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>108.1778076684026</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_22</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.9440109729370185</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.7831882056225279</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9851963950716139</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.814747876980365</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.898609225234407</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.3743988817759216</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1.449821467328673</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.08267387505563249</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1.068844276478663</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0.5757590757671475</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.270821700409403</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0.6118814278730166</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.149304072167951</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0.6379304870267416</v>
+      </c>
+      <c r="P24" t="n">
+        <v>67.96486704218555</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>108.1877692628362</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_23</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9442819967820221</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.7828130217479506</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9851339866084239</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.8126574463884269</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.8975165611287705</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.3725865440764329</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1.452330323625534</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.08302240836985914</v>
+      </c>
+      <c r="J25" t="n">
+        <v>1.080905378598028</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0.5819638934839435</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1.261559184279266</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.6103986763390243</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.148581341914608</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0.6363846116902283</v>
+      </c>
+      <c r="P25" t="n">
+        <v>67.97457187011317</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>108.1974740907638</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>model_15_7_24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.9445447488635814</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.7824345510577424</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9850579246907271</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8106024656236421</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0.8964351923246011</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.3708295196971836</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1.454861158873654</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.08344719229989363</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.09276194678689</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0.588104569543392</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.252369975983776</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.6089577322747316</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.147880669697116</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0.6348823236539533</v>
+      </c>
+      <c r="P26" t="n">
+        <v>67.98402567525076</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>108.2069278959014</v>
       </c>
     </row>
   </sheetData>
